--- a/ProjectManagement.xlsx
+++ b/ProjectManagement.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyhu\Desktop\w241experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0473AF8-9401-40F3-8B41-7CDAF200A2B7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB260AE-3713-4154-A17A-F08FBB2C333A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15375" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15380" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>9. Presentation</t>
+  </si>
+  <si>
+    <t>Treatment Units</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,49 +190,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,16 +251,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42D02D5-DB04-439B-BA3A-DC64C9DAB003}" name="Table1" displayName="Table1" ref="C8:H17" totalsRowShown="0">
   <autoFilter ref="C8:H17" xr:uid="{9BADE250-69FC-4BD0-BB6D-2A52C33DF7E8}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{CC501600-6358-4250-95B6-BE9F0DADBFFF}" name="StartDate" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{31A6D5FB-6913-4EDE-B79A-8513FA28DCD9}" name="EndDate" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{20DAE621-08E5-4048-A84B-C81E3D27A28D}" name="Duration" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{CC501600-6358-4250-95B6-BE9F0DADBFFF}" name="StartDate" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{31A6D5FB-6913-4EDE-B79A-8513FA28DCD9}" name="EndDate" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{20DAE621-08E5-4048-A84B-C81E3D27A28D}" name="Duration" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[EndDate]]-Table1[[#This Row],[StartDate]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D352F696-B956-4ED5-8BBE-8C70AEF78416}" name="Task" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{7A051A90-2A6C-48DD-899E-D43133C65280}" name="Dependency" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{D352F696-B956-4ED5-8BBE-8C70AEF78416}" name="Task" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{7A051A90-2A6C-48DD-899E-D43133C65280}" name="Dependency" dataDxfId="7">
       <calculatedColumnFormula>F8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FEB3DA5A-CF76-44B5-81DB-01BFDA7ABFB7}" name="Comments" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FEB3DA5A-CF76-44B5-81DB-01BFDA7ABFB7}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -267,10 +270,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEE77831-F92E-4BC5-BD1D-25EFCFFB93B0}" name="Table2" displayName="Table2" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D8" xr:uid="{B08AE72A-524F-406B-AD50-CA56205C387A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C399DE3A-4F8B-42DC-A810-8D837DD47927}" name="assume 400 house" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{379B3266-F0E9-4590-8295-6D04AFBE9377}" name="unit price" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EF63956C-7372-430F-B66B-45457103FBEC}" name="total cost" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{802E4A24-62D5-441D-BA02-DB942F70515F}" name="notes" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C399DE3A-4F8B-42DC-A810-8D837DD47927}" name="assume 400 house" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{379B3266-F0E9-4590-8295-6D04AFBE9377}" name="unit price" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EF63956C-7372-430F-B66B-45457103FBEC}" name="total cost" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{802E4A24-62D5-441D-BA02-DB942F70515F}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,19 +579,19 @@
   <dimension ref="C8:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" style="1" customWidth="1"/>
     <col min="6" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -608,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>43164</v>
       </c>
@@ -626,7 +629,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <f>D9</f>
         <v>43167</v>
@@ -643,14 +646,14 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G9:G17" si="0">F9</f>
+        <f t="shared" ref="G10" si="0">F9</f>
         <v>1. pick location and get home address</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <f>Table1[[#This Row],[EndDate]]-6</f>
         <v>43168</v>
@@ -674,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C12" s="5">
         <f>C9</f>
         <v>43164</v>
@@ -698,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C13" s="5">
         <f>Table1[[#This Row],[EndDate]]-3</f>
         <v>43171</v>
@@ -720,7 +723,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C14" s="6">
         <f>Table1[[#This Row],[EndDate]]</f>
         <v>43175</v>
@@ -744,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="5">
         <f>Table1[[#This Row],[EndDate]]-13</f>
         <v>43182</v>
@@ -766,7 +769,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C16" s="5">
         <f>Table1[[#This Row],[EndDate]]-13</f>
         <v>43196</v>
@@ -788,7 +791,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>43210</v>
       </c>
@@ -824,23 +827,26 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -862,14 +868,14 @@
         <v>0.42</v>
       </c>
       <c r="C3" s="3">
-        <f>B3*$A$1</f>
+        <f>B3*$B$1</f>
         <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -884,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -899,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -907,11 +913,11 @@
         <v>0.6</v>
       </c>
       <c r="C6" s="3">
-        <f>B6*$A$1</f>
+        <f>B6*$B$1</f>
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -922,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>

--- a/ProjectManagement.xlsx
+++ b/ProjectManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyhu\Desktop\w241experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB260AE-3713-4154-A17A-F08FBB2C333A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A7397-E7C8-4504-ACF2-7F5737C00280}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15380" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15375" activeTab="1" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>Treatment Units</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>all data done</t>
+  </si>
+  <si>
+    <t>flyer, post card</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,6 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,22 +589,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A0EA7-A724-4684-B82D-3E3D4CECE36F}">
-  <dimension ref="C8:H17"/>
+  <dimension ref="A8:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -611,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>43164</v>
       </c>
@@ -629,7 +642,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <f>D9</f>
         <v>43167</v>
@@ -653,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <f>Table1[[#This Row],[EndDate]]-6</f>
         <v>43168</v>
@@ -677,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <f>C9</f>
         <v>43164</v>
@@ -701,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <f>Table1[[#This Row],[EndDate]]-3</f>
         <v>43171</v>
@@ -723,7 +736,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="3:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <f>Table1[[#This Row],[EndDate]]</f>
         <v>43175</v>
@@ -747,7 +760,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43182</v>
+      </c>
       <c r="C15" s="5">
         <f>Table1[[#This Row],[EndDate]]-13</f>
         <v>43182</v>
@@ -769,7 +788,13 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43202</v>
+      </c>
       <c r="C16" s="5">
         <f>Table1[[#This Row],[EndDate]]-13</f>
         <v>43196</v>
@@ -791,7 +816,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C17" s="6">
         <v>43210</v>
       </c>
@@ -824,29 +849,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF779B-5065-45BC-870B-190C3F9998DC}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -860,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -869,13 +894,13 @@
       </c>
       <c r="C3" s="3">
         <f>B3*$B$1</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -890,7 +915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -905,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -914,10 +939,10 @@
       </c>
       <c r="C6" s="3">
         <f>B6*$B$1</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -928,13 +953,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C3:C6)</f>
-        <v>338</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement.xlsx
+++ b/ProjectManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyhu\Desktop\w241experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A7397-E7C8-4504-ACF2-7F5737C00280}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09145329-4CF9-4F68-9167-769B40C47AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15375" activeTab="1" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>12 inches * 7.5 inches, 100 copies, $150, a day, $20 for putting address</t>
+  </si>
+  <si>
+    <t>postcard</t>
+  </si>
+  <si>
+    <t>mailing label</t>
+  </si>
+  <si>
+    <t>Postcard</t>
   </si>
 </sst>
 </file>
@@ -180,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,11 +200,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +232,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF779B-5065-45BC-870B-190C3F9998DC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +999,53 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <f>0.6*B16</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUM(B17:B19)</f>
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ProjectManagement.xlsx
+++ b/ProjectManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyhu\Desktop\w241experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09145329-4CF9-4F68-9167-769B40C47AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A0750A-B5DC-431D-B164-C02EBAE104FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15375" activeTab="1" xr2:uid="{E69ECB88-8EDB-4550-98F7-33033A131794}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -158,16 +158,41 @@
   </si>
   <si>
     <t>Postcard</t>
+  </si>
+  <si>
+    <t>Postcard printing</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>107 copies</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>Postage Stamp</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>100 units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +202,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,11 +267,36 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -293,29 +351,41 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42D02D5-DB04-439B-BA3A-DC64C9DAB003}" name="Table1" displayName="Table1" ref="C8:H17" totalsRowShown="0">
   <autoFilter ref="C8:H17" xr:uid="{9BADE250-69FC-4BD0-BB6D-2A52C33DF7E8}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{CC501600-6358-4250-95B6-BE9F0DADBFFF}" name="StartDate" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{31A6D5FB-6913-4EDE-B79A-8513FA28DCD9}" name="EndDate" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{20DAE621-08E5-4048-A84B-C81E3D27A28D}" name="Duration" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{CC501600-6358-4250-95B6-BE9F0DADBFFF}" name="StartDate" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{31A6D5FB-6913-4EDE-B79A-8513FA28DCD9}" name="EndDate" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{20DAE621-08E5-4048-A84B-C81E3D27A28D}" name="Duration" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[EndDate]]-Table1[[#This Row],[StartDate]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D352F696-B956-4ED5-8BBE-8C70AEF78416}" name="Task" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{7A051A90-2A6C-48DD-899E-D43133C65280}" name="Dependency" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{D352F696-B956-4ED5-8BBE-8C70AEF78416}" name="Task" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{7A051A90-2A6C-48DD-899E-D43133C65280}" name="Dependency" dataDxfId="9">
       <calculatedColumnFormula>F8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FEB3DA5A-CF76-44B5-81DB-01BFDA7ABFB7}" name="Comments" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FEB3DA5A-CF76-44B5-81DB-01BFDA7ABFB7}" name="Comments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEE77831-F92E-4BC5-BD1D-25EFCFFB93B0}" name="Table2" displayName="Table2" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEE77831-F92E-4BC5-BD1D-25EFCFFB93B0}" name="Table2" displayName="Table2" ref="A2:D8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:D8" xr:uid="{B08AE72A-524F-406B-AD50-CA56205C387A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C399DE3A-4F8B-42DC-A810-8D837DD47927}" name="assume 400 house" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{379B3266-F0E9-4590-8295-6D04AFBE9377}" name="unit price" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EF63956C-7372-430F-B66B-45457103FBEC}" name="total cost" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{802E4A24-62D5-441D-BA02-DB942F70515F}" name="notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C399DE3A-4F8B-42DC-A810-8D837DD47927}" name="assume 400 house" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{379B3266-F0E9-4590-8295-6D04AFBE9377}" name="unit price" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EF63956C-7372-430F-B66B-45457103FBEC}" name="total cost" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{802E4A24-62D5-441D-BA02-DB942F70515F}" name="notes" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7497197E-B3DB-40A5-AFF5-2EFD9BB0E518}" name="Table3" displayName="Table3" ref="A22:C26" totalsRowShown="0">
+  <autoFilter ref="A22:C26" xr:uid="{8780E215-0F78-4C7A-ABD6-1373CA78B512}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{44D7A8EC-E272-4A80-8453-FBDF89AA1BA7}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{8B73390A-A5B2-4D1C-9C48-B2E5AF0E43BC}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C2EBAC35-B625-4F59-A124-E08FAA79AB4E}" name="Amount" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,16 +948,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF779B-5065-45BC-870B-190C3F9998DC}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1012,7 +1082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1037,7 +1107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1046,11 +1116,66 @@
         <v>230</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="10">
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11">
+        <f>SUM(C23:C25)</f>
+        <v>131.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>